--- a/biology/Médecine/Henri-Auguste_François/Henri-Auguste_François.xlsx
+++ b/biology/Médecine/Henri-Auguste_François/Henri-Auguste_François.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henri-Auguste_Fran%C3%A7ois</t>
+          <t>Henri-Auguste_François</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri-Auguste François, né le 16 septembre 1812 à Hanovre (Royaume de Westphalie) et mort 22 décembre 1872 à Strasbourg, est un médecin cantonal alsacien, spécialiste du paludisme, et l'un des grands noms du théâtre populaire dialectal au XIXe siècle. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henri-Auguste_Fran%C3%A7ois</t>
+          <t>Henri-Auguste_François</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de militaire, Henri-Auguste étudie la médecine à l'université de Strasbourg, puis s'installe dans le faubourg de La Robertsau, au nord de la ville[1], où il passe le reste de sa vie. Décrit comme un médecin « talentueux et dévoué », il s'attaque notamment au paludisme[1] qui fait alors des ravages et qu'il contribuera à éradiquer de la ville[2]. 
-Le 12 septembre 1833 il épouse à Strasbourg Marie Anne Dorothée Delhaye, la veuve d'un garde forestier. Ses activités médicales lui laissent peu de loisirs, mais lui inspirent néanmoins une comédie dialectale – la seule œuvre qu'on lui connaisse –, D'Hüsmittel (les remèdes de bonne femme), publiée en 1842[1].
-Le docteur François est inhumé au cimetière Saint-Louis de Strasbourg (Robertsau). Quoique dépourvue d'inscription, mais gravée d'un caducée à l'arrière, sa tombe est reconnaissable à un grand obélisque en grès et à une plaque apposée par les habitants du quartier : « La Robertsau reconnaissante à son regretté médecin »[1]. 
-Une rue proche y porte également son nom, elle relie la rue de la Papeterie à la rue des Maraîchers[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de militaire, Henri-Auguste étudie la médecine à l'université de Strasbourg, puis s'installe dans le faubourg de La Robertsau, au nord de la ville, où il passe le reste de sa vie. Décrit comme un médecin « talentueux et dévoué », il s'attaque notamment au paludisme qui fait alors des ravages et qu'il contribuera à éradiquer de la ville. 
+Le 12 septembre 1833 il épouse à Strasbourg Marie Anne Dorothée Delhaye, la veuve d'un garde forestier. Ses activités médicales lui laissent peu de loisirs, mais lui inspirent néanmoins une comédie dialectale – la seule œuvre qu'on lui connaisse –, D'Hüsmittel (les remèdes de bonne femme), publiée en 1842.
+Le docteur François est inhumé au cimetière Saint-Louis de Strasbourg (Robertsau). Quoique dépourvue d'inscription, mais gravée d'un caducée à l'arrière, sa tombe est reconnaissable à un grand obélisque en grès et à une plaque apposée par les habitants du quartier : « La Robertsau reconnaissante à son regretté médecin ». 
+Une rue proche y porte également son nom, elle relie la rue de la Papeterie à la rue des Maraîchers.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Henri-Auguste_Fran%C3%A7ois</t>
+          <t>Henri-Auguste_François</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publia en 1842 dans les Affiches de Strasbourg, D'Husmittel e Komödie wo au ebbs wun de Hexemeister unn de respektable Schlofer vorkummt ; uffg' setz vun der Frau Bärwel von Blappermuul. La pièce fut rééditée en 1886[4].
-Ce texte reste dans la lignée des Fraubasengespräche (conversations de commères), ces récits populaires qui sont à la base du théâtre alsacien. Mais il raconte aussi les difficultés d'un jeune médecin confronté à l'auto-médication populaire et aux nombreuses croyances populaires. Ces petites fables morales, didactiques, édifiantes, et qui font un peu penser à Knock, sont destinées à se venger des agissements dangereux des guérisseurs de tout poil auquel il était confronté dans la vie réelle[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publia en 1842 dans les Affiches de Strasbourg, D'Husmittel e Komödie wo au ebbs wun de Hexemeister unn de respektable Schlofer vorkummt ; uffg' setz vun der Frau Bärwel von Blappermuul. La pièce fut rééditée en 1886.
+Ce texte reste dans la lignée des Fraubasengespräche (conversations de commères), ces récits populaires qui sont à la base du théâtre alsacien. Mais il raconte aussi les difficultés d'un jeune médecin confronté à l'auto-médication populaire et aux nombreuses croyances populaires. Ces petites fables morales, didactiques, édifiantes, et qui font un peu penser à Knock, sont destinées à se venger des agissements dangereux des guérisseurs de tout poil auquel il était confronté dans la vie réelle.
 </t>
         </is>
       </c>
